--- a/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_5_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1899336.572824563</v>
+        <v>1879382.949980528</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2341983.383206078</v>
+        <v>2341983.383206077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8927469.172031755</v>
+        <v>8927469.172031753</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>312.1907976989489</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>321.6436499598516</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>159.3753758166595</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>114.0826979669256</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>20.71529751882114</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>13.86039560144231</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>262.5018280174127</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>48.51251994734353</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>130.7153159374665</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>132.3762047137758</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>166.8653229153428</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>85.99523981675821</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>32.70260325951716</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.5448231886905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486081</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>64.89430198021023</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
@@ -1421,7 +1421,7 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1430,10 +1430,10 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>150.2941415377026</v>
       </c>
       <c r="X11" t="n">
-        <v>19.33415213001621</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>39.83460586322535</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>81.89261498477863</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>140.0963452958982</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2570,10 +2570,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>62.38087559044843</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>33.66139711149583</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
@@ -2858,7 +2858,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>134.0644576498817</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875294</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277542</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059297</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541628</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880374</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908615</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092587</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380498</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357225</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596439</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253643</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708361</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.4279536636916</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249335</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325496</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593855</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875322</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277545</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059299</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880377</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908618</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7168126509259</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380501</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357228</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596442</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253646</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370839</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369162</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593858</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.058287459757</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>197.4831349685678</v>
+        <v>281.812235687573</v>
       </c>
       <c r="D41" t="n">
-        <v>274.1552067009731</v>
+        <v>274.1552067009733</v>
       </c>
       <c r="E41" t="n">
-        <v>291.126178840095</v>
+        <v>236.2575884839709</v>
       </c>
       <c r="F41" t="n">
-        <v>305.2939832907961</v>
+        <v>305.2939832907963</v>
       </c>
       <c r="G41" t="n">
-        <v>301.599617162351</v>
+        <v>301.5996171623512</v>
       </c>
       <c r="H41" t="n">
-        <v>213.4107091346484</v>
+        <v>213.4107091346486</v>
       </c>
       <c r="I41" t="n">
-        <v>29.52223494393394</v>
+        <v>29.52223494393417</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.41690871383406</v>
+        <v>57.41690871383429</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.8340856216518</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.7636914752217</v>
       </c>
       <c r="V41" t="n">
-        <v>231.2542304089909</v>
+        <v>231.2542304089911</v>
       </c>
       <c r="W41" t="n">
-        <v>259.8575338868695</v>
+        <v>259.8575338868698</v>
       </c>
       <c r="X41" t="n">
-        <v>278.1265682217478</v>
+        <v>278.1265682217481</v>
       </c>
       <c r="Y41" t="n">
-        <v>285.094291194079</v>
+        <v>285.0942911940792</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.92442770986239</v>
+        <v>75.92442770986261</v>
       </c>
       <c r="C43" t="n">
-        <v>61.07155596014479</v>
+        <v>61.07155596014502</v>
       </c>
       <c r="D43" t="n">
-        <v>46.64527117198452</v>
+        <v>46.64527117198475</v>
       </c>
       <c r="E43" t="n">
-        <v>46.57171322486363</v>
+        <v>46.57171322486386</v>
       </c>
       <c r="F43" t="n">
-        <v>48.3211646446309</v>
+        <v>48.32116464463112</v>
       </c>
       <c r="G43" t="n">
-        <v>59.14000256702303</v>
+        <v>59.14000256702326</v>
       </c>
       <c r="H43" t="n">
-        <v>46.49225473359508</v>
+        <v>46.4922547335953</v>
       </c>
       <c r="I43" t="n">
-        <v>24.33197031476701</v>
+        <v>24.33197031476723</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.23046867922292</v>
+        <v>15.23046867922315</v>
       </c>
       <c r="S43" t="n">
-        <v>93.35641218475024</v>
+        <v>93.35641218475047</v>
       </c>
       <c r="T43" t="n">
-        <v>125.9303505189223</v>
+        <v>125.9303505189226</v>
       </c>
       <c r="U43" t="n">
-        <v>175.1528930459922</v>
+        <v>175.1528930459924</v>
       </c>
       <c r="V43" t="n">
-        <v>155.8880409328581</v>
+        <v>155.8880409328584</v>
       </c>
       <c r="W43" t="n">
-        <v>173.0655872536083</v>
+        <v>173.0655872536085</v>
       </c>
       <c r="X43" t="n">
-        <v>124.3080082003208</v>
+        <v>124.3080082003211</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.4494297769972</v>
+        <v>113.4494297769974</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.9046389232975</v>
+        <v>289.0582874597573</v>
       </c>
       <c r="C44" t="n">
-        <v>281.8122356875729</v>
+        <v>281.812235687573</v>
       </c>
       <c r="D44" t="n">
-        <v>274.1552067009731</v>
+        <v>274.1552067009733</v>
       </c>
       <c r="E44" t="n">
-        <v>291.1261788400951</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>305.2939832907962</v>
+        <v>305.2939832907963</v>
       </c>
       <c r="G44" t="n">
-        <v>301.599617162351</v>
+        <v>248.7989181865655</v>
       </c>
       <c r="H44" t="n">
-        <v>213.4107091346484</v>
+        <v>213.4107091346486</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.52223494393414</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.41690871383426</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>113.8340856216518</v>
       </c>
       <c r="U44" t="n">
-        <v>145.7636914752215</v>
+        <v>145.7636914752217</v>
       </c>
       <c r="V44" t="n">
-        <v>231.254230408991</v>
+        <v>231.2542304089911</v>
       </c>
       <c r="W44" t="n">
-        <v>259.8575338868696</v>
+        <v>259.8575338868698</v>
       </c>
       <c r="X44" t="n">
-        <v>278.1265682217479</v>
+        <v>278.126568221748</v>
       </c>
       <c r="Y44" t="n">
-        <v>285.0942911940791</v>
+        <v>285.0942911940792</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.92442770986243</v>
+        <v>75.92442770986258</v>
       </c>
       <c r="C46" t="n">
-        <v>61.07155596014483</v>
+        <v>61.07155596014499</v>
       </c>
       <c r="D46" t="n">
-        <v>46.64527117198456</v>
+        <v>46.64527117198472</v>
       </c>
       <c r="E46" t="n">
-        <v>46.57171322486367</v>
+        <v>46.57171322486383</v>
       </c>
       <c r="F46" t="n">
-        <v>48.32116464463094</v>
+        <v>48.3211646446311</v>
       </c>
       <c r="G46" t="n">
-        <v>59.14000256702307</v>
+        <v>59.14000256702323</v>
       </c>
       <c r="H46" t="n">
-        <v>46.49225473359512</v>
+        <v>46.49225473359527</v>
       </c>
       <c r="I46" t="n">
-        <v>24.33197031476705</v>
+        <v>24.3319703147672</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.23046867922297</v>
+        <v>15.23046867922312</v>
       </c>
       <c r="S46" t="n">
-        <v>93.35641218475028</v>
+        <v>93.35641218475044</v>
       </c>
       <c r="T46" t="n">
-        <v>125.9303505189224</v>
+        <v>125.9303505189225</v>
       </c>
       <c r="U46" t="n">
-        <v>175.1528930459922</v>
+        <v>175.1528930459924</v>
       </c>
       <c r="V46" t="n">
-        <v>155.8880409328582</v>
+        <v>155.8880409328583</v>
       </c>
       <c r="W46" t="n">
-        <v>173.0655872536083</v>
+        <v>173.0655872536085</v>
       </c>
       <c r="X46" t="n">
-        <v>124.3080082003209</v>
+        <v>124.308008200321</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.4494297769972</v>
+        <v>113.4494297769974</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1972.883763008934</v>
+        <v>918.1249271978095</v>
       </c>
       <c r="C2" t="n">
-        <v>1657.539522908986</v>
+        <v>918.1249271978095</v>
       </c>
       <c r="D2" t="n">
-        <v>1272.098394125653</v>
+        <v>918.1249271978095</v>
       </c>
       <c r="E2" t="n">
-        <v>869.5148692421978</v>
+        <v>515.5414023143539</v>
       </c>
       <c r="F2" t="n">
-        <v>452.6204307721756</v>
+        <v>502.6873678847357</v>
       </c>
       <c r="G2" t="n">
-        <v>39.45767526017868</v>
+        <v>177.7947921677139</v>
       </c>
       <c r="H2" t="n">
-        <v>39.45767526017868</v>
+        <v>177.7947921677139</v>
       </c>
       <c r="I2" t="n">
         <v>39.45767526017868</v>
       </c>
       <c r="J2" t="n">
-        <v>184.1074481690068</v>
+        <v>39.45767526017868</v>
       </c>
       <c r="K2" t="n">
-        <v>543.0898041964687</v>
+        <v>39.45767526017868</v>
       </c>
       <c r="L2" t="n">
-        <v>999.8111098441352</v>
+        <v>371.4211392862348</v>
       </c>
       <c r="M2" t="n">
-        <v>999.8111098441352</v>
+        <v>859.7098706309461</v>
       </c>
       <c r="N2" t="n">
-        <v>999.8111098441352</v>
+        <v>1347.998601975657</v>
       </c>
       <c r="O2" t="n">
-        <v>1439.850710736464</v>
+        <v>1788.038202867986</v>
       </c>
       <c r="P2" t="n">
         <v>1788.038202867986</v>
@@ -4352,28 +4352,28 @@
         <v>1972.883763008934</v>
       </c>
       <c r="R2" t="n">
-        <v>1972.883763008934</v>
+        <v>1934.890849294456</v>
       </c>
       <c r="S2" t="n">
-        <v>1972.883763008934</v>
+        <v>1768.377294235507</v>
       </c>
       <c r="T2" t="n">
-        <v>1972.883763008934</v>
+        <v>1544.876691794923</v>
       </c>
       <c r="U2" t="n">
-        <v>1972.883763008934</v>
+        <v>1289.123962229522</v>
       </c>
       <c r="V2" t="n">
-        <v>1972.883763008934</v>
+        <v>1289.123962229522</v>
       </c>
       <c r="W2" t="n">
-        <v>1972.883763008934</v>
+        <v>918.1249271978095</v>
       </c>
       <c r="X2" t="n">
-        <v>1972.883763008934</v>
+        <v>918.1249271978095</v>
       </c>
       <c r="Y2" t="n">
-        <v>1972.883763008934</v>
+        <v>918.1249271978095</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>838.8236584002096</v>
+        <v>750.5262420008106</v>
       </c>
       <c r="C3" t="n">
-        <v>688.1694279603018</v>
+        <v>599.8720115609028</v>
       </c>
       <c r="D3" t="n">
-        <v>558.0804605817822</v>
+        <v>469.7830441823832</v>
       </c>
       <c r="E3" t="n">
-        <v>421.6339696926699</v>
+        <v>333.3365532932709</v>
       </c>
       <c r="F3" t="n">
-        <v>297.2021635758017</v>
+        <v>208.9047471764027</v>
       </c>
       <c r="G3" t="n">
-        <v>177.1423456476662</v>
+        <v>88.84492924826709</v>
       </c>
       <c r="H3" t="n">
         <v>88.84492924826709</v>
@@ -4407,19 +4407,19 @@
         <v>39.45767526017868</v>
       </c>
       <c r="J3" t="n">
-        <v>152.5726574799061</v>
+        <v>39.45767526017868</v>
       </c>
       <c r="K3" t="n">
-        <v>472.3118035421325</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="L3" t="n">
-        <v>955.8778894404458</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="M3" t="n">
-        <v>1444.166620785157</v>
+        <v>590.6849316031145</v>
       </c>
       <c r="N3" t="n">
-        <v>1567.262394292537</v>
+        <v>1078.973662947826</v>
       </c>
       <c r="O3" t="n">
         <v>1567.262394292537</v>
@@ -4431,28 +4431,28 @@
         <v>1972.883763008934</v>
       </c>
       <c r="R3" t="n">
-        <v>1972.883763008934</v>
+        <v>1948.966719906999</v>
       </c>
       <c r="S3" t="n">
-        <v>1972.883763008934</v>
+        <v>1814.036042806868</v>
       </c>
       <c r="T3" t="n">
-        <v>1972.883763008934</v>
+        <v>1637.052231005776</v>
       </c>
       <c r="U3" t="n">
-        <v>1811.898534911298</v>
+        <v>1426.989087684418</v>
       </c>
       <c r="V3" t="n">
-        <v>1589.358533282365</v>
+        <v>1311.754039232978</v>
       </c>
       <c r="W3" t="n">
-        <v>1359.241287415652</v>
+        <v>1081.636793366265</v>
       </c>
       <c r="X3" t="n">
-        <v>1169.934209765664</v>
+        <v>1081.636793366265</v>
       </c>
       <c r="Y3" t="n">
-        <v>990.619992841171</v>
+        <v>902.322576441772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.9307703944153</v>
+        <v>696.8680936700702</v>
       </c>
       <c r="C4" t="n">
-        <v>216.9307703944153</v>
+        <v>526.6629757360594</v>
       </c>
       <c r="D4" t="n">
-        <v>216.9307703944153</v>
+        <v>526.6629757360594</v>
       </c>
       <c r="E4" t="n">
-        <v>216.9307703944153</v>
+        <v>526.6629757360594</v>
       </c>
       <c r="F4" t="n">
-        <v>216.9307703944153</v>
+        <v>526.6629757360594</v>
       </c>
       <c r="G4" t="n">
-        <v>216.9307703944153</v>
+        <v>358.4089218355049</v>
       </c>
       <c r="H4" t="n">
         <v>202.9303707969989</v>
@@ -4513,25 +4513,25 @@
         <v>940.904697801731</v>
       </c>
       <c r="S4" t="n">
-        <v>738.0886139842803</v>
+        <v>940.904697801731</v>
       </c>
       <c r="T4" t="n">
-        <v>502.3695621525144</v>
+        <v>940.904697801731</v>
       </c>
       <c r="U4" t="n">
-        <v>216.9307703944153</v>
+        <v>940.904697801731</v>
       </c>
       <c r="V4" t="n">
-        <v>216.9307703944153</v>
+        <v>940.904697801731</v>
       </c>
       <c r="W4" t="n">
-        <v>216.9307703944153</v>
+        <v>940.904697801731</v>
       </c>
       <c r="X4" t="n">
-        <v>216.9307703944153</v>
+        <v>940.904697801731</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.9307703944153</v>
+        <v>717.7926366183743</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.5116340563891</v>
+        <v>917.0297299995036</v>
       </c>
       <c r="C5" t="n">
-        <v>837.5116340563891</v>
+        <v>523.8542285024341</v>
       </c>
       <c r="D5" t="n">
-        <v>452.0705052730568</v>
+        <v>523.8542285024341</v>
       </c>
       <c r="E5" t="n">
-        <v>452.0705052730568</v>
+        <v>523.8542285024341</v>
       </c>
       <c r="F5" t="n">
-        <v>186.9171436393066</v>
+        <v>511.000194072816</v>
       </c>
       <c r="G5" t="n">
-        <v>177.7947921677139</v>
+        <v>501.8778426012232</v>
       </c>
       <c r="H5" t="n">
         <v>177.7947921677139</v>
@@ -4565,22 +4565,22 @@
         <v>39.45767526017868</v>
       </c>
       <c r="J5" t="n">
-        <v>39.45767526017868</v>
+        <v>184.1074481690068</v>
       </c>
       <c r="K5" t="n">
-        <v>39.45767526017868</v>
+        <v>323.1720088338523</v>
       </c>
       <c r="L5" t="n">
-        <v>39.45767526017868</v>
+        <v>811.4607401785635</v>
       </c>
       <c r="M5" t="n">
-        <v>527.7464066048898</v>
+        <v>1299.749471523275</v>
       </c>
       <c r="N5" t="n">
-        <v>999.8111098441352</v>
+        <v>1788.038202867986</v>
       </c>
       <c r="O5" t="n">
-        <v>1439.850710736464</v>
+        <v>1788.038202867986</v>
       </c>
       <c r="P5" t="n">
         <v>1788.038202867986</v>
@@ -4589,28 +4589,28 @@
         <v>1972.883763008934</v>
       </c>
       <c r="R5" t="n">
-        <v>1972.883763008934</v>
+        <v>1934.890849294456</v>
       </c>
       <c r="S5" t="n">
-        <v>1806.370207949985</v>
+        <v>1885.888303893099</v>
       </c>
       <c r="T5" t="n">
-        <v>1806.370207949985</v>
+        <v>1885.888303893099</v>
       </c>
       <c r="U5" t="n">
-        <v>1550.617478384583</v>
+        <v>1630.135574327698</v>
       </c>
       <c r="V5" t="n">
-        <v>1208.510669088102</v>
+        <v>1288.028765031216</v>
       </c>
       <c r="W5" t="n">
-        <v>837.5116340563891</v>
+        <v>917.0297299995036</v>
       </c>
       <c r="X5" t="n">
-        <v>837.5116340563891</v>
+        <v>917.0297299995036</v>
       </c>
       <c r="Y5" t="n">
-        <v>837.5116340563891</v>
+        <v>917.0297299995036</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453.9142111733292</v>
+        <v>820.2051006244094</v>
       </c>
       <c r="C6" t="n">
-        <v>303.2599807334215</v>
+        <v>688.1694279603018</v>
       </c>
       <c r="D6" t="n">
-        <v>173.1710133549018</v>
+        <v>558.0804605817822</v>
       </c>
       <c r="E6" t="n">
-        <v>39.45767526017868</v>
+        <v>421.6339696926699</v>
       </c>
       <c r="F6" t="n">
-        <v>39.45767526017868</v>
+        <v>297.2021635758017</v>
       </c>
       <c r="G6" t="n">
-        <v>39.45767526017868</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H6" t="n">
-        <v>39.45767526017868</v>
+        <v>88.84492924826709</v>
       </c>
       <c r="I6" t="n">
         <v>39.45767526017868</v>
       </c>
       <c r="J6" t="n">
-        <v>152.5726574799061</v>
+        <v>39.45767526017868</v>
       </c>
       <c r="K6" t="n">
-        <v>472.3118035421325</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="L6" t="n">
-        <v>472.3118035421325</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="M6" t="n">
-        <v>590.6849316031144</v>
+        <v>847.4855526671163</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.973662947825</v>
+        <v>1335.774284011828</v>
       </c>
       <c r="O6" t="n">
-        <v>1567.262394292537</v>
+        <v>1824.063015356539</v>
       </c>
       <c r="P6" t="n">
         <v>1972.883763008934</v>
@@ -4671,25 +4671,25 @@
         <v>1948.966719906999</v>
       </c>
       <c r="S6" t="n">
-        <v>1814.036042806867</v>
+        <v>1814.036042806868</v>
       </c>
       <c r="T6" t="n">
-        <v>1637.052231005776</v>
+        <v>1814.036042806868</v>
       </c>
       <c r="U6" t="n">
-        <v>1426.989087684418</v>
+        <v>1603.97289948551</v>
       </c>
       <c r="V6" t="n">
-        <v>1204.449086055485</v>
+        <v>1381.432897856577</v>
       </c>
       <c r="W6" t="n">
-        <v>974.3318401887716</v>
+        <v>1151.315651989863</v>
       </c>
       <c r="X6" t="n">
-        <v>785.0247625387833</v>
+        <v>1151.315651989863</v>
       </c>
       <c r="Y6" t="n">
-        <v>605.7105456142906</v>
+        <v>972.0014350653707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.3424221880032</v>
+        <v>706.8243755847141</v>
       </c>
       <c r="C7" t="n">
-        <v>352.3424221880032</v>
+        <v>538.273544357095</v>
       </c>
       <c r="D7" t="n">
-        <v>352.3424221880032</v>
+        <v>382.6404312596098</v>
       </c>
       <c r="E7" t="n">
-        <v>196.7836100472057</v>
+        <v>382.6404312596098</v>
       </c>
       <c r="F7" t="n">
-        <v>39.45767526017868</v>
+        <v>225.3144964725828</v>
       </c>
       <c r="G7" t="n">
-        <v>39.45767526017868</v>
+        <v>225.3144964725828</v>
       </c>
       <c r="H7" t="n">
-        <v>39.45767526017868</v>
+        <v>69.83594543407673</v>
       </c>
       <c r="I7" t="n">
-        <v>39.45767526017868</v>
+        <v>69.83594543407673</v>
       </c>
       <c r="J7" t="n">
         <v>39.45767526017868</v>
@@ -4753,22 +4753,22 @@
         <v>940.904697801731</v>
       </c>
       <c r="T7" t="n">
-        <v>705.1856459699651</v>
+        <v>940.904697801731</v>
       </c>
       <c r="U7" t="n">
-        <v>705.1856459699651</v>
+        <v>940.904697801731</v>
       </c>
       <c r="V7" t="n">
-        <v>439.2063007907893</v>
+        <v>940.904697801731</v>
       </c>
       <c r="W7" t="n">
-        <v>439.2063007907893</v>
+        <v>940.904697801731</v>
       </c>
       <c r="X7" t="n">
-        <v>352.3424221880032</v>
+        <v>706.8243755847141</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.3424221880032</v>
+        <v>706.8243755847141</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806715</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842793</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028082</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.797620547389</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184851</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863168</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297767</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001286</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>968.7828599695731</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>968.7828599695731</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083082</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4926,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614185</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="C10" t="n">
-        <v>684.0848840274077</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299225</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="F10" t="n">
-        <v>215.567024002098</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>523.5901514638969</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="C11" t="n">
         <v>1572.977054970837</v>
@@ -5024,19 +5024,19 @@
         <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955918</v>
+        <v>652.8800066955923</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707833</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2873.571463155802</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2626.405335146509</v>
       </c>
       <c r="W11" t="n">
-        <v>2497.845413993114</v>
+        <v>2474.593070967011</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>2180.081147187256</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1878.531119395046</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443716</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311668</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1638.910046033469</v>
+        <v>1642.069506034397</v>
       </c>
       <c r="C14" t="n">
-        <v>1340.675225823588</v>
+        <v>1343.834685824516</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.174778327444</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E14" t="n">
-        <v>742.5319347311772</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>420.5781775483433</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>102.3561033235346</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411552</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404055</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2951.663698318077</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774168</v>
+        <v>2790.851650039864</v>
       </c>
       <c r="V14" t="n">
-        <v>2816.584415774168</v>
+        <v>2543.685522030571</v>
       </c>
       <c r="W14" t="n">
-        <v>2540.526062029644</v>
+        <v>2543.685522030571</v>
       </c>
       <c r="X14" t="n">
-        <v>2246.014138249889</v>
+        <v>2249.173598250816</v>
       </c>
       <c r="Y14" t="n">
-        <v>1944.464110457678</v>
+        <v>1947.623570458605</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5352,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
         <v>545.6852136024288</v>
@@ -5367,13 +5367,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443715</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445328</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469766</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5543,22 +5543,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5601,13 +5601,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,16 +5914,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343045</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>2243.686201918056</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>2205.157820666454</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>2181.201444251377</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>2157.319368792988</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>2131.67017068837</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>2071.291039114126</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433612</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433612</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2151.708391543554</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2315.836031417354</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2507.707252363801</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162813</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>2297.217483926949</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1712.93578632066</v>
+        <v>1712.935786320663</v>
       </c>
       <c r="C26" t="n">
-        <v>1414.700966110779</v>
+        <v>1414.700966110782</v>
       </c>
       <c r="D26" t="n">
-        <v>1124.200518614635</v>
+        <v>1124.200518614637</v>
       </c>
       <c r="E26" t="n">
-        <v>816.5576750183679</v>
+        <v>982.6890587197906</v>
       </c>
       <c r="F26" t="n">
-        <v>494.603917835534</v>
+        <v>660.7353015369567</v>
       </c>
       <c r="G26" t="n">
-        <v>176.3818436107254</v>
+        <v>342.5132273121483</v>
       </c>
       <c r="H26" t="n">
         <v>113.3708581658273</v>
       </c>
       <c r="I26" t="n">
-        <v>69.97442254548041</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J26" t="n">
-        <v>214.6241954543085</v>
+        <v>214.6241954543086</v>
       </c>
       <c r="K26" t="n">
         <v>573.6065514817703</v>
@@ -6233,43 +6233,43 @@
         <v>1066.926843200299</v>
       </c>
       <c r="M26" t="n">
-        <v>1662.868598285026</v>
+        <v>1705.979104974453</v>
       </c>
       <c r="N26" t="n">
-        <v>2283.731243652061</v>
+        <v>2233.790388611915</v>
       </c>
       <c r="O26" t="n">
-        <v>2816.822206273963</v>
+        <v>2766.881351233817</v>
       </c>
       <c r="P26" t="n">
-        <v>3258.061060135058</v>
+        <v>3208.120205094912</v>
       </c>
       <c r="Q26" t="n">
-        <v>3442.906620276007</v>
+        <v>3442.906620276009</v>
       </c>
       <c r="R26" t="n">
-        <v>3498.72112727402</v>
+        <v>3498.721127274022</v>
       </c>
       <c r="S26" t="n">
-        <v>3427.148253502259</v>
+        <v>3427.148253502261</v>
       </c>
       <c r="T26" t="n">
-        <v>3298.588332348864</v>
+        <v>3298.588332348867</v>
       </c>
       <c r="U26" t="n">
-        <v>3137.776284070651</v>
+        <v>3137.776284070654</v>
       </c>
       <c r="V26" t="n">
-        <v>2890.610156061358</v>
+        <v>2890.610156061361</v>
       </c>
       <c r="W26" t="n">
-        <v>2614.551802316834</v>
+        <v>2614.551802316837</v>
       </c>
       <c r="X26" t="n">
-        <v>2320.039878537079</v>
+        <v>2320.039878537082</v>
       </c>
       <c r="Y26" t="n">
-        <v>2018.489850744868</v>
+        <v>2018.489850744871</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>869.3404056855113</v>
+        <v>869.3404056855114</v>
       </c>
       <c r="C27" t="n">
-        <v>718.6861752456035</v>
+        <v>718.6861752456036</v>
       </c>
       <c r="D27" t="n">
-        <v>588.5972078670839</v>
+        <v>588.597207867084</v>
       </c>
       <c r="E27" t="n">
-        <v>452.1507169779716</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F27" t="n">
-        <v>327.7189108611034</v>
+        <v>327.7189108611035</v>
       </c>
       <c r="G27" t="n">
-        <v>207.6590929329679</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H27" t="n">
-        <v>119.3616765335688</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I27" t="n">
-        <v>69.97442254548041</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J27" t="n">
-        <v>69.97442254548041</v>
+        <v>183.0894047652078</v>
       </c>
       <c r="K27" t="n">
-        <v>389.7135686077069</v>
+        <v>502.8285508274342</v>
       </c>
       <c r="L27" t="n">
-        <v>873.2796545060201</v>
+        <v>986.3946367257474</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.803214658847</v>
+        <v>1614.166286352429</v>
       </c>
       <c r="N27" t="n">
-        <v>1231.803214658847</v>
+        <v>1614.166286352429</v>
       </c>
       <c r="O27" t="n">
-        <v>1748.323497249828</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="P27" t="n">
         <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2388.309957521116</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R27" t="n">
         <v>2364.392914419181</v>
@@ -6345,7 +6345,7 @@
         <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1200.450957050965</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y27" t="n">
         <v>1021.136740126473</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>500.939661796465</v>
+        <v>500.9396617964655</v>
       </c>
       <c r="C28" t="n">
-        <v>425.6752251496426</v>
+        <v>425.6752251496434</v>
       </c>
       <c r="D28" t="n">
-        <v>364.9827933393461</v>
+        <v>364.9827933393464</v>
       </c>
       <c r="E28" t="n">
-        <v>304.364662485737</v>
+        <v>304.3646624857369</v>
       </c>
       <c r="F28" t="n">
         <v>241.9794089858982</v>
@@ -6376,22 +6376,22 @@
         <v>168.6660363725321</v>
       </c>
       <c r="H28" t="n">
-        <v>108.1281666212142</v>
+        <v>108.1281666212143</v>
       </c>
       <c r="I28" t="n">
-        <v>69.97442254548041</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J28" t="n">
         <v>133.2520416776163</v>
       </c>
       <c r="K28" t="n">
-        <v>308.1384445171313</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L28" t="n">
-        <v>565.3174461205044</v>
+        <v>565.3174461205043</v>
       </c>
       <c r="M28" t="n">
-        <v>844.6603861883418</v>
+        <v>844.6603861883415</v>
       </c>
       <c r="N28" t="n">
         <v>1120.901381949124</v>
@@ -6400,7 +6400,7 @@
         <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1589.585038226557</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q28" t="n">
         <v>1686.058596326182</v>
@@ -6415,19 +6415,19 @@
         <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1217.946404700196</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V28" t="n">
         <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>858.5180200265748</v>
+        <v>858.5180200265754</v>
       </c>
       <c r="X28" t="n">
-        <v>719.3783790967462</v>
+        <v>719.3783790967468</v>
       </c>
       <c r="Y28" t="n">
-        <v>591.2069992005779</v>
+        <v>591.2069992005785</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1879.067170022082</v>
+        <v>1879.067170022083</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.832349812201</v>
+        <v>1580.832349812202</v>
       </c>
       <c r="D29" t="n">
-        <v>1290.331902316057</v>
+        <v>1290.331902316058</v>
       </c>
       <c r="E29" t="n">
-        <v>982.6890587197905</v>
+        <v>982.6890587197906</v>
       </c>
       <c r="F29" t="n">
-        <v>660.7353015369566</v>
+        <v>660.7353015369567</v>
       </c>
       <c r="G29" t="n">
-        <v>342.5132273121482</v>
+        <v>342.5132273121483</v>
       </c>
       <c r="H29" t="n">
-        <v>113.3708581658272</v>
+        <v>113.3708581658273</v>
       </c>
       <c r="I29" t="n">
-        <v>69.97442254548041</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J29" t="n">
         <v>307.6755571838818</v>
@@ -6467,46 +6467,46 @@
         <v>666.6579132113436</v>
       </c>
       <c r="L29" t="n">
-        <v>1159.978204929872</v>
+        <v>1253.029566659446</v>
       </c>
       <c r="M29" t="n">
-        <v>1705.979104974453</v>
+        <v>1892.0818284336</v>
       </c>
       <c r="N29" t="n">
-        <v>2233.790388611915</v>
+        <v>2419.893112071062</v>
       </c>
       <c r="O29" t="n">
-        <v>2723.77084454439</v>
+        <v>2859.93271296339</v>
       </c>
       <c r="P29" t="n">
-        <v>3165.009698405485</v>
+        <v>3208.120205094912</v>
       </c>
       <c r="Q29" t="n">
-        <v>3442.906620276007</v>
+        <v>3486.017126965434</v>
       </c>
       <c r="R29" t="n">
-        <v>3498.72112727402</v>
+        <v>3498.721127274022</v>
       </c>
       <c r="S29" t="n">
-        <v>3498.72112727402</v>
+        <v>3427.148253502261</v>
       </c>
       <c r="T29" t="n">
-        <v>3464.719716050287</v>
+        <v>3298.588332348867</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.907667772074</v>
+        <v>3137.776284070654</v>
       </c>
       <c r="V29" t="n">
-        <v>3056.741539762781</v>
+        <v>2890.610156061361</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.683186018256</v>
+        <v>2614.551802316837</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.171262238502</v>
+        <v>2320.039878537082</v>
       </c>
       <c r="Y29" t="n">
-        <v>2184.621234446291</v>
+        <v>2184.621234446292</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>869.3404056855113</v>
+        <v>869.3404056855114</v>
       </c>
       <c r="C30" t="n">
-        <v>718.6861752456035</v>
+        <v>718.6861752456036</v>
       </c>
       <c r="D30" t="n">
-        <v>588.5972078670839</v>
+        <v>588.597207867084</v>
       </c>
       <c r="E30" t="n">
-        <v>452.1507169779716</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F30" t="n">
-        <v>327.7189108611034</v>
+        <v>327.7189108611035</v>
       </c>
       <c r="G30" t="n">
-        <v>207.6590929329679</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H30" t="n">
-        <v>119.3616765335688</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I30" t="n">
-        <v>69.97442254548041</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J30" t="n">
-        <v>69.97442254548041</v>
+        <v>183.0894047652078</v>
       </c>
       <c r="K30" t="n">
-        <v>104.673968194582</v>
+        <v>502.8285508274342</v>
       </c>
       <c r="L30" t="n">
-        <v>588.2400540928952</v>
+        <v>986.3946367257474</v>
       </c>
       <c r="M30" t="n">
-        <v>1216.011703719576</v>
+        <v>986.3946367257474</v>
       </c>
       <c r="N30" t="n">
-        <v>1871.789674930135</v>
+        <v>1231.803214658848</v>
       </c>
       <c r="O30" t="n">
-        <v>2388.309957521116</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="P30" t="n">
-        <v>2388.309957521116</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2388.309957521116</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R30" t="n">
         <v>2364.392914419181</v>
@@ -6582,7 +6582,7 @@
         <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1200.450957050965</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y30" t="n">
         <v>1021.136740126473</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.9396617964651</v>
+        <v>500.9396617964657</v>
       </c>
       <c r="C31" t="n">
-        <v>425.675225149643</v>
+        <v>425.6752251496432</v>
       </c>
       <c r="D31" t="n">
         <v>364.982793339346</v>
       </c>
       <c r="E31" t="n">
-        <v>304.3646624857365</v>
+        <v>304.3646624857372</v>
       </c>
       <c r="F31" t="n">
-        <v>241.979408985898</v>
+        <v>241.9794089858985</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6660363725319</v>
+        <v>168.6660363725322</v>
       </c>
       <c r="H31" t="n">
-        <v>108.1281666212142</v>
+        <v>108.1281666212145</v>
       </c>
       <c r="I31" t="n">
-        <v>69.97442254548041</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J31" t="n">
         <v>133.2520416776163</v>
       </c>
       <c r="K31" t="n">
-        <v>308.1384445171314</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L31" t="n">
-        <v>565.317446120504</v>
+        <v>565.3174461205043</v>
       </c>
       <c r="M31" t="n">
-        <v>844.6603861883411</v>
+        <v>844.6603861883417</v>
       </c>
       <c r="N31" t="n">
         <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1376.657510720405</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1589.585038226557</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q31" t="n">
-        <v>1686.058596326181</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R31" t="n">
-        <v>1657.098288245946</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1549.222885715684</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
         <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1217.946404700196</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1046.907740808208</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>858.5180200265745</v>
+        <v>858.5180200265754</v>
       </c>
       <c r="X31" t="n">
-        <v>719.3783790967462</v>
+        <v>719.3783790967469</v>
       </c>
       <c r="Y31" t="n">
-        <v>591.206999200578</v>
+        <v>591.2069992005786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924207</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6722,22 +6722,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840155</v>
@@ -6762,10 +6762,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
         <v>199.803798091603</v>
@@ -6774,19 +6774,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411549</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N33" t="n">
         <v>1223.947919817482</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885584</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369562</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218796</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634907</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588723</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.3386307407264</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462899</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>161.4017547291067</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>278.5901810446677</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L34" t="n">
-        <v>442.7178209184675</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M34" t="n">
-        <v>629.0093992567315</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N34" t="n">
-        <v>812.1990332879407</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296487</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106227</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.202162476278</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476278</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341236</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918788</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161883</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194211</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330074</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856983991</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974511</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099321</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803437</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6968,7 +6968,7 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885586</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369564</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218797</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634908</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072649</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462905</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7105,40 +7105,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445237</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862317</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.15895616281</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532861</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918791</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161887</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194215</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330077</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983994</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974513</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
@@ -7166,10 +7166,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,25 +7199,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1059.426580900608</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1690.998991382262</v>
+        <v>1720.757082657902</v>
       </c>
       <c r="C41" t="n">
-        <v>1491.521077272598</v>
+        <v>1436.09825873106</v>
       </c>
       <c r="D41" t="n">
-        <v>1214.596626059494</v>
+        <v>1159.173807517955</v>
       </c>
       <c r="E41" t="n">
-        <v>920.5297787462663</v>
+        <v>920.5297787462673</v>
       </c>
       <c r="F41" t="n">
-        <v>612.1520178464724</v>
+        <v>612.1520178464731</v>
       </c>
       <c r="G41" t="n">
-        <v>307.5059399047037</v>
+        <v>307.5059399047042</v>
       </c>
       <c r="H41" t="n">
-        <v>91.93956704142253</v>
+        <v>91.93956704142276</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3047.959507717054</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>3047.959507717054</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U41" t="n">
-        <v>3047.959507717054</v>
+        <v>2785.739530851526</v>
       </c>
       <c r="V41" t="n">
-        <v>2814.369375990801</v>
+        <v>2552.149399125272</v>
       </c>
       <c r="W41" t="n">
-        <v>2551.887018529317</v>
+        <v>2289.667041663788</v>
       </c>
       <c r="X41" t="n">
-        <v>2270.951091032602</v>
+        <v>2008.731114167073</v>
       </c>
       <c r="Y41" t="n">
-        <v>1982.977059523431</v>
+        <v>1720.757082657902</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>398.0523929738216</v>
+        <v>398.0523929738231</v>
       </c>
       <c r="C43" t="n">
-        <v>336.363952610039</v>
+        <v>336.3639526100403</v>
       </c>
       <c r="D43" t="n">
-        <v>289.2475170827819</v>
+        <v>289.247517082783</v>
       </c>
       <c r="E43" t="n">
-        <v>242.2053825122125</v>
+        <v>242.2053825122134</v>
       </c>
       <c r="F43" t="n">
-        <v>193.3961252954136</v>
+        <v>193.3961252954143</v>
       </c>
       <c r="G43" t="n">
-        <v>133.6587489650873</v>
+        <v>133.6587489650878</v>
       </c>
       <c r="H43" t="n">
-        <v>86.69687549680947</v>
+        <v>86.6968754968097</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>138.7025807932587</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>322.3037924648273</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>592.7886280252077</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>885.4374020500524</v>
+        <v>600.7305827127016</v>
       </c>
       <c r="N43" t="n">
-        <v>1174.984231767842</v>
+        <v>855.9126447081045</v>
       </c>
       <c r="O43" t="n">
-        <v>1337.68899880955</v>
+        <v>1124.974607436393</v>
       </c>
       <c r="P43" t="n">
-        <v>1457.565164586129</v>
+        <v>1351.207968899552</v>
       </c>
       <c r="Q43" t="n">
-        <v>1460.98736095618</v>
+        <v>1460.987360956183</v>
       </c>
       <c r="R43" t="n">
-        <v>1445.603049158985</v>
+        <v>1445.603049158988</v>
       </c>
       <c r="S43" t="n">
-        <v>1351.303642911762</v>
+        <v>1351.303642911766</v>
       </c>
       <c r="T43" t="n">
-        <v>1224.101268650224</v>
+        <v>1224.101268650228</v>
       </c>
       <c r="U43" t="n">
-        <v>1047.179154462354</v>
+        <v>1047.179154462357</v>
       </c>
       <c r="V43" t="n">
-        <v>889.7164868534061</v>
+        <v>889.7164868534087</v>
       </c>
       <c r="W43" t="n">
-        <v>714.9027623548119</v>
+        <v>714.9027623548142</v>
       </c>
       <c r="X43" t="n">
-        <v>589.3391177080232</v>
+        <v>589.3391177080252</v>
       </c>
       <c r="Y43" t="n">
-        <v>474.7437340948946</v>
+        <v>474.7437340948965</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1746.359461862133</v>
+        <v>1428.779014516733</v>
       </c>
       <c r="C44" t="n">
-        <v>1461.700637935291</v>
+        <v>1144.120190589891</v>
       </c>
       <c r="D44" t="n">
-        <v>1184.776186722187</v>
+        <v>867.1957393767868</v>
       </c>
       <c r="E44" t="n">
-        <v>890.7093394089595</v>
+        <v>867.1957393767868</v>
       </c>
       <c r="F44" t="n">
-        <v>582.3315785091654</v>
+        <v>558.8179784769927</v>
       </c>
       <c r="G44" t="n">
-        <v>277.6855005673967</v>
+        <v>307.5059399047041</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>91.93956704142273</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7655,43 +7655,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U44" t="n">
-        <v>2958.720333210603</v>
+        <v>2785.739530851526</v>
       </c>
       <c r="V44" t="n">
-        <v>2725.13020148435</v>
+        <v>2552.149399125272</v>
       </c>
       <c r="W44" t="n">
-        <v>2462.647844022865</v>
+        <v>2289.667041663788</v>
       </c>
       <c r="X44" t="n">
-        <v>2181.71191652615</v>
+        <v>2008.731114167073</v>
       </c>
       <c r="Y44" t="n">
-        <v>1893.737885016979</v>
+        <v>1720.757082657902</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>398.0523929738218</v>
+        <v>398.052392973823</v>
       </c>
       <c r="C46" t="n">
-        <v>336.3639526100392</v>
+        <v>336.3639526100401</v>
       </c>
       <c r="D46" t="n">
-        <v>289.2475170827821</v>
+        <v>289.2475170827828</v>
       </c>
       <c r="E46" t="n">
-        <v>242.2053825122127</v>
+        <v>242.2053825122133</v>
       </c>
       <c r="F46" t="n">
-        <v>193.3961252954138</v>
+        <v>193.3961252954142</v>
       </c>
       <c r="G46" t="n">
-        <v>133.6587489650874</v>
+        <v>133.6587489650877</v>
       </c>
       <c r="H46" t="n">
-        <v>86.69687549680951</v>
+        <v>86.69687549680967</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>138.7025807932586</v>
+        <v>134.1115556683085</v>
       </c>
       <c r="K46" t="n">
-        <v>220.5376219032005</v>
+        <v>215.9465967782504</v>
       </c>
       <c r="L46" t="n">
-        <v>384.6652617770003</v>
+        <v>380.0742366520502</v>
       </c>
       <c r="M46" t="n">
-        <v>570.9568401152643</v>
+        <v>672.7230106768947</v>
       </c>
       <c r="N46" t="n">
-        <v>855.912644708101</v>
+        <v>962.2698403946843</v>
       </c>
       <c r="O46" t="n">
-        <v>1124.97460743639</v>
+        <v>1124.974607436392</v>
       </c>
       <c r="P46" t="n">
-        <v>1351.207968899549</v>
+        <v>1351.207968899551</v>
       </c>
       <c r="Q46" t="n">
-        <v>1460.98736095618</v>
+        <v>1460.987360956183</v>
       </c>
       <c r="R46" t="n">
-        <v>1445.603049158985</v>
+        <v>1445.603049158988</v>
       </c>
       <c r="S46" t="n">
-        <v>1351.303642911763</v>
+        <v>1351.303642911765</v>
       </c>
       <c r="T46" t="n">
-        <v>1224.101268650225</v>
+        <v>1224.101268650227</v>
       </c>
       <c r="U46" t="n">
-        <v>1047.179154462354</v>
+        <v>1047.179154462356</v>
       </c>
       <c r="V46" t="n">
-        <v>889.7164868534066</v>
+        <v>889.7164868534084</v>
       </c>
       <c r="W46" t="n">
-        <v>714.9027623548124</v>
+        <v>714.9027623548139</v>
       </c>
       <c r="X46" t="n">
-        <v>589.3391177080235</v>
+        <v>589.339117708025</v>
       </c>
       <c r="Y46" t="n">
-        <v>474.743734094895</v>
+        <v>474.7437340948963</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>614.5828218998519</v>
+        <v>488.5648000598413</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>642.9459923499608</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>642.3394320900177</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6080628015454</v>
+        <v>326.2134960702305</v>
       </c>
       <c r="N3" t="n">
-        <v>209.7112780131359</v>
+        <v>578.5930536064002</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>585.9084996411225</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>283.5276563760509</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>646.4691104827252</v>
       </c>
       <c r="M5" t="n">
         <v>642.9459923499608</v>
       </c>
       <c r="N5" t="n">
-        <v>625.9515249127795</v>
+        <v>642.3394320900177</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,16 +8301,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>211.9559382725259</v>
+        <v>585.6080628015454</v>
       </c>
       <c r="N6" t="n">
         <v>578.5930536064002</v>
       </c>
       <c r="O6" t="n">
-        <v>585.9084996411224</v>
+        <v>585.9084996411225</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>237.4073523469867</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,10 +8453,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751037</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>468.0425993879824</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>351.5705978518757</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8778,7 +8778,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>108.8653421701425</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286869</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>124.6469814435369</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>123.0036286693764</v>
       </c>
       <c r="X11" t="n">
-        <v>272.232652411941</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>187.0163395916324</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>45.38170695708239</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>164.4700698644062</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>164.4700698644094</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>93.61292483036517</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>164.4700698644067</v>
       </c>
     </row>
     <row r="30">
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>289.0582874597573</v>
       </c>
       <c r="C41" t="n">
-        <v>84.32910071900503</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>54.86859035612435</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>113.8340856216516</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>145.7636914752215</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>143.1536485364596</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>291.1261788400952</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>52.80069897578562</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.52223494393398</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.4169087138341</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>113.8340856216517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742425.9556937367</v>
+        <v>742425.9556937368</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772758.3597730037</v>
+        <v>772758.359773004</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758473.5978600668</v>
+        <v>758473.5978600665</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758473.5978600667</v>
+        <v>758473.5978600666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>540996.5342800702</v>
+      </c>
+      <c r="C2" t="n">
+        <v>540996.5342800702</v>
+      </c>
+      <c r="D2" t="n">
         <v>540996.5342800703</v>
       </c>
-      <c r="C2" t="n">
-        <v>540996.5342800699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>540996.5342800702</v>
-      </c>
       <c r="E2" t="n">
-        <v>508428.3680497156</v>
+        <v>508428.3680497155</v>
       </c>
       <c r="F2" t="n">
         <v>508428.3680497156</v>
       </c>
       <c r="G2" t="n">
+        <v>540996.5342800706</v>
+      </c>
+      <c r="H2" t="n">
         <v>540996.5342800705</v>
-      </c>
-      <c r="H2" t="n">
-        <v>540996.5342800703</v>
       </c>
       <c r="I2" t="n">
         <v>540996.5342800706</v>
       </c>
       <c r="J2" t="n">
-        <v>531177.6711091658</v>
+        <v>531177.671109166</v>
       </c>
       <c r="K2" t="n">
-        <v>531177.6711091659</v>
+        <v>531177.671109166</v>
       </c>
       <c r="L2" t="n">
-        <v>540996.5342800702</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="M2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800705</v>
       </c>
       <c r="N2" t="n">
-        <v>540996.5342800702</v>
+        <v>540996.5342800705</v>
       </c>
       <c r="O2" t="n">
-        <v>520464.0996744624</v>
+        <v>520464.0996744621</v>
       </c>
       <c r="P2" t="n">
-        <v>520464.0996744622</v>
+        <v>520464.0996744623</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165289.6813277107</v>
+        <v>165289.6813277108</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>30501.12795716477</v>
+        <v>30501.12795716483</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720421</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.9117460288</v>
+        <v>58189.91174602868</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989177</v>
+        <v>46121.92123989162</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27755.29688959198</v>
+        <v>27755.29688959186</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232677.3624289637</v>
+        <v>234652.060283316</v>
       </c>
       <c r="C4" t="n">
-        <v>232677.3624289636</v>
+        <v>234652.060283316</v>
       </c>
       <c r="D4" t="n">
-        <v>212208.6280501851</v>
+        <v>214411.5550182207</v>
       </c>
       <c r="E4" t="n">
-        <v>162473.9056578724</v>
+        <v>164957.5079017302</v>
       </c>
       <c r="F4" t="n">
-        <v>162473.9056578724</v>
+        <v>164957.5079017302</v>
       </c>
       <c r="G4" t="n">
-        <v>187078.2263013543</v>
+        <v>189561.8285452122</v>
       </c>
       <c r="H4" t="n">
-        <v>187078.2263013543</v>
+        <v>189561.8285452122</v>
       </c>
       <c r="I4" t="n">
-        <v>187078.2263013543</v>
+        <v>189561.8285452122</v>
       </c>
       <c r="J4" t="n">
-        <v>180184.5843410623</v>
+        <v>182668.1865849204</v>
       </c>
       <c r="K4" t="n">
-        <v>180184.5843410624</v>
+        <v>182668.1865849203</v>
       </c>
       <c r="L4" t="n">
-        <v>187078.2263013543</v>
+        <v>189561.8285452122</v>
       </c>
       <c r="M4" t="n">
-        <v>187078.2263013544</v>
+        <v>189561.8285452122</v>
       </c>
       <c r="N4" t="n">
-        <v>187078.2263013543</v>
+        <v>189561.8285452122</v>
       </c>
       <c r="O4" t="n">
-        <v>171565.6618691453</v>
+        <v>174049.2641130031</v>
       </c>
       <c r="P4" t="n">
-        <v>171565.6618691453</v>
+        <v>174049.2641130031</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63615.43319773579</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
         <v>55112.2895089091</v>
@@ -26482,25 +26482,25 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>61082.31358834641</v>
+        <v>61082.31358834645</v>
       </c>
       <c r="K5" t="n">
-        <v>61082.31358834642</v>
+        <v>61082.31358834644</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551964</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79414.05732566015</v>
+        <v>77439.35947130767</v>
       </c>
       <c r="C6" t="n">
-        <v>244703.7386533705</v>
+        <v>242729.0407990185</v>
       </c>
       <c r="D6" t="n">
-        <v>228701.3209955472</v>
+        <v>226498.3940275117</v>
       </c>
       <c r="E6" t="n">
-        <v>160389.241745222</v>
+        <v>157797.0789472628</v>
       </c>
       <c r="F6" t="n">
-        <v>290842.1728829341</v>
+        <v>288250.0100849751</v>
       </c>
       <c r="G6" t="n">
-        <v>266653.5827901821</v>
+        <v>264169.9805463243</v>
       </c>
       <c r="H6" t="n">
-        <v>295748.5386631964</v>
+        <v>293264.9364193386</v>
       </c>
       <c r="I6" t="n">
-        <v>295748.5386631967</v>
+        <v>293264.9364193387</v>
       </c>
       <c r="J6" t="n">
-        <v>89073.27510771496</v>
+        <v>86556.94331995391</v>
       </c>
       <c r="K6" t="n">
-        <v>289910.7731797571</v>
+        <v>287394.4413919962</v>
       </c>
       <c r="L6" t="n">
-        <v>237558.6269171675</v>
+        <v>235075.0246733098</v>
       </c>
       <c r="M6" t="n">
-        <v>249626.6174233045</v>
+        <v>247143.015179447</v>
       </c>
       <c r="N6" t="n">
-        <v>295748.5386631964</v>
+        <v>293264.9364193386</v>
       </c>
       <c r="O6" t="n">
-        <v>264900.9441796123</v>
+        <v>262348.9004870691</v>
       </c>
       <c r="P6" t="n">
-        <v>292656.2410692041</v>
+        <v>290104.1973766611</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="P2" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
     <row r="3">
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.2209407522335</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="C4" t="n">
-        <v>493.2209407522335</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>874.680281818505</v>
+        <v>874.6802818185056</v>
       </c>
       <c r="K4" t="n">
-        <v>874.680281818505</v>
+        <v>874.6802818185056</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>57.62257963304853</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253599</v>
+        <v>72.73738968253585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.69412111198997</v>
+        <v>34.69412111198983</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.2209407522335</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.19118551706136</v>
+        <v>98.19118551706154</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692943</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321495</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>57.62257963304853</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.2209407522335</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.19118551706136</v>
+        <v>98.19118551706154</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>77.05294878314982</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>87.3874779970252</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>48.58713607148511</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>106.231903645718</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>162.6406409855671</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27549,10 +27549,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>140.0633699266786</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>150.2236660679093</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>116.3358995610164</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>18.43237219804223</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.705821266445298</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>1.63774383932784</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>145.7442791780885</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>356.5411432225815</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,13 +27862,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.9809787999144</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952746</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>217.6901018603078</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28746,25 +28746,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R20" t="n">
         <v>37.61298457733328</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.636002634528268</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29305,43 +29305,43 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>50.44530812135952</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>50.44530812136188</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>50.44530812135952</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>50.44530812136166</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733144</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
-        <v>35.710490106686</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30177,40 +30177,40 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>128.297982108276</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155845</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>28.01250026485148</v>
-      </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J43" t="n">
-        <v>107.4315107945259</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>102.7941116784108</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>107.4315107945259</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="N43" t="n">
-        <v>107.4315107945259</v>
+        <v>72.7196242062563</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="R43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="S43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y43" t="n">
-        <v>107.4315107945259</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="C44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="D44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="E44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="F44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="G44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="H44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="I44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="T44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="U44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="V44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="W44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="X44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Y44" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="C46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="D46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="E46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="F46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="G46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="I46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="J46" t="n">
-        <v>107.4315107945258</v>
+        <v>102.7941116784146</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,43 +30885,43 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="N46" t="n">
-        <v>102.7941116784116</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="O46" t="n">
-        <v>107.4315107945258</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="R46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="U46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="V46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="W46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="X46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Y46" t="n">
-        <v>107.4315107945258</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3346521693601</v>
+        <v>335.3166303293497</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>493.2209407522335</v>
+        <v>233.8263740209185</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3391651589693</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>140.4692531968136</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="M5" t="n">
-        <v>493.2209407522335</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="N5" t="n">
-        <v>476.8330335749954</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,16 +35021,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>119.568816223214</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.2209407522335</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="O6" t="n">
-        <v>493.2209407522335</v>
+        <v>493.2209407522336</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>150.323987527672</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958663</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>259.1834758025638</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35498,7 +35498,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>23.49322931597588</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133864</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,22 +36522,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873202</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>249.3850182462365</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>601.961368772451</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>237.157995132421</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397981</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>494.9297534671458</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>12.83232354402838</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>35.05004611020359</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434255</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
-        <v>118.372147793496</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37248,7 +37248,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>313.3380164832348</v>
+        <v>190.6760370094888</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835692</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.46926427500396</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835636</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>77.35702332236681</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>185.4557693652208</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>273.2170056165459</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>295.6048222473178</v>
+        <v>295.6048222473176</v>
       </c>
       <c r="N43" t="n">
-        <v>292.4715451694847</v>
+        <v>257.7596585812151</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>271.7797603316045</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>228.5185469324838</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>110.8882748046781</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.35702332236676</v>
+        <v>72.71962420625555</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,19 +38181,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>295.6048222473177</v>
       </c>
       <c r="N46" t="n">
-        <v>287.8341460533704</v>
+        <v>292.4715451694844</v>
       </c>
       <c r="O46" t="n">
-        <v>271.7797603316047</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>228.518546932484</v>
+        <v>228.5185469324838</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.8882748046783</v>
+        <v>110.8882748046782</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
